--- a/bio_diversity/static/data_templates/mactaquac-water quality record.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-water quality record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Water Quality Data" sheetId="2" r:id="rId1"/>
@@ -1015,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K1048576" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:K1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K1046882" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:K1046882"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Time (24HR)" dataDxfId="17"/>
@@ -1317,11 +1317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,716 +1378,6 @@
       <c r="A2" s="4"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="8"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="8"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="8"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="8"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="8"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="8"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="8"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="8"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="8"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="8"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2101,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/bio_diversity/static/data_templates/mactaquac-water quality record.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-water quality record.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ponds!$A$1:$B$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Water Quality Data'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Water Quality Data'!$C$1:$M$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Printable Template'!$A$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -290,13 +290,22 @@
   </si>
   <si>
     <t>P9</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +327,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -462,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,11 +532,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -974,6 +994,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1015,20 +1050,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K1046882" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:K1046882"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="Time (24HR)" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M10" headerRowDxfId="23">
+  <autoFilter ref="A1:M10"/>
+  <tableColumns count="13">
+    <tableColumn id="13" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="12" name="Month"/>
+    <tableColumn id="1" name="Day"/>
+    <tableColumn id="2" name="Time (24HR)" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Pond"/>
     <tableColumn id="4" name="Source"/>
-    <tableColumn id="5" name="Fish in Pond?" dataDxfId="16"/>
-    <tableColumn id="6" name="Temp °C" dataDxfId="15"/>
-    <tableColumn id="7" name="DO%" dataDxfId="14"/>
-    <tableColumn id="8" name="pH" dataDxfId="13"/>
+    <tableColumn id="5" name="Fish in Pond?" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="Temp °C" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" name="DO%" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" name="pH" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="9" name="Dissolved Nitrogen %"/>
     <tableColumn id="10" name="Comments"/>
-    <tableColumn id="11" name="Initials"/>
+    <tableColumn id="11" name="Initials" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1317,66 +1354,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="8"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+      <c r="D3" s="7"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4"/>
+      <c r="D4" s="7"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+      <c r="D5" s="7"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+      <c r="D6" s="7"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+      <c r="D7" s="7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="D8" s="7"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="D9" s="7"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="D10" s="7"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
